--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2664131.080013931</v>
+        <v>-2667003.188405287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10773478.8310263</v>
+        <v>10773478.83102631</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>25.19106799595636</v>
+        <v>195.974824512544</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>129.1656898932703</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.38479577089177</v>
+        <v>17.38479577089137</v>
       </c>
       <c r="S2" t="n">
-        <v>160.9594723450099</v>
+        <v>160.9594723450098</v>
       </c>
       <c r="T2" t="n">
         <v>213.863364016199</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>332.0426522838933</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>306.9314236381607</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.2150613636115</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3369369087893</v>
+        <v>101.3369369087892</v>
       </c>
       <c r="I3" t="n">
-        <v>50.54409764591934</v>
+        <v>50.54409764591922</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.09458722665616</v>
+        <v>30.09458722665595</v>
       </c>
       <c r="S3" t="n">
-        <v>150.7225995630386</v>
+        <v>150.7225995630385</v>
       </c>
       <c r="T3" t="n">
-        <v>195.6162599236305</v>
+        <v>195.6162599236304</v>
       </c>
       <c r="U3" t="n">
         <v>225.8671415678433</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.942466372819908</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.7551189590918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.5293622453316</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.9033354783226</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2674261145765</v>
       </c>
       <c r="V4" t="n">
-        <v>25.32210770284638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>120.6050920455495</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>403.0855326508555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.19366029116422</v>
+        <v>13.19366029116421</v>
       </c>
       <c r="H5" t="n">
-        <v>317.8752149957759</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>129.1656898932701</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.38479577089137</v>
       </c>
       <c r="S5" t="n">
-        <v>160.9594723450099</v>
+        <v>160.9594723450098</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>114.3102165535195</v>
       </c>
       <c r="U5" t="n">
         <v>251.1769267299188</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.2150613636115</v>
       </c>
       <c r="H6" t="n">
-        <v>101.3369369087893</v>
+        <v>101.3369369087892</v>
       </c>
       <c r="I6" t="n">
-        <v>50.54409764591934</v>
+        <v>50.54409764591922</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>30.09458722665616</v>
+        <v>30.09458722665595</v>
       </c>
       <c r="S6" t="n">
-        <v>150.7225995630386</v>
+        <v>150.7225995630385</v>
       </c>
       <c r="T6" t="n">
-        <v>195.6162599236305</v>
+        <v>195.6162599236304</v>
       </c>
       <c r="U6" t="n">
         <v>225.8671415678433</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>207.5293622453316</v>
+        <v>207.5293622453315</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>172.3383751609883</v>
       </c>
       <c r="U7" t="n">
         <v>286.2674261145765</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.2133731240436</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>24.69647652286347</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>49.41390350543415</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.39384663017711</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>249.9048605514355</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.70391688093253</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>169.9685329265976</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2488,7 +2488,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
@@ -2524,7 +2524,7 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096042</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352486</v>
@@ -2716,22 +2716,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972048</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808201</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835248</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.0131954878237</v>
+        <v>251.0516466224877</v>
       </c>
       <c r="C2" t="n">
-        <v>209.0131954878237</v>
+        <v>251.0516466224877</v>
       </c>
       <c r="D2" t="n">
-        <v>183.567672259585</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="E2" t="n">
-        <v>183.567672259585</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="F2" t="n">
-        <v>183.567672259585</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="G2" t="n">
-        <v>183.567672259585</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="H2" t="n">
-        <v>183.567672259585</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="I2" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J2" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K2" t="n">
-        <v>100.8080325028612</v>
+        <v>290.2452580146786</v>
       </c>
       <c r="L2" t="n">
-        <v>386.3364291759569</v>
+        <v>386.3364291759518</v>
       </c>
       <c r="M2" t="n">
-        <v>969.9442074813941</v>
+        <v>969.9442074813901</v>
       </c>
       <c r="N2" t="n">
-        <v>1548.363372237147</v>
+        <v>1548.363372237145</v>
       </c>
       <c r="O2" t="n">
-        <v>2049.360549648908</v>
+        <v>2049.360549648906</v>
       </c>
       <c r="P2" t="n">
-        <v>2439.27566668296</v>
+        <v>2439.275666682959</v>
       </c>
       <c r="Q2" t="n">
-        <v>2654.86392139994</v>
+        <v>2654.863921399939</v>
       </c>
       <c r="R2" t="n">
         <v>2637.303521631362</v>
@@ -4370,10 +4370,10 @@
         <v>1321.148985996336</v>
       </c>
       <c r="X2" t="n">
-        <v>985.7523675277573</v>
+        <v>947.6832277352567</v>
       </c>
       <c r="Y2" t="n">
-        <v>595.6130355519456</v>
+        <v>637.6514866866095</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>973.2628878422001</v>
+        <v>973.2628878421997</v>
       </c>
       <c r="C3" t="n">
-        <v>798.8098585610732</v>
+        <v>798.8098585610727</v>
       </c>
       <c r="D3" t="n">
-        <v>649.875448899822</v>
+        <v>649.8754488998215</v>
       </c>
       <c r="E3" t="n">
-        <v>490.6379938943664</v>
+        <v>490.637993894366</v>
       </c>
       <c r="F3" t="n">
-        <v>344.1034359212516</v>
+        <v>344.1034359212511</v>
       </c>
       <c r="G3" t="n">
-        <v>206.5124648468968</v>
+        <v>206.5124648468964</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1519225147863</v>
+        <v>104.1519225147858</v>
       </c>
       <c r="I3" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J3" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K3" t="n">
-        <v>97.03290999295399</v>
+        <v>97.03290999295452</v>
       </c>
       <c r="L3" t="n">
-        <v>293.8530672543719</v>
+        <v>293.8530672543679</v>
       </c>
       <c r="M3" t="n">
-        <v>897.2541000621977</v>
+        <v>897.2541000621945</v>
       </c>
       <c r="N3" t="n">
-        <v>1532.332376120094</v>
+        <v>1532.332376120092</v>
       </c>
       <c r="O3" t="n">
-        <v>2046.889247849866</v>
+        <v>2046.889247849864</v>
       </c>
       <c r="P3" t="n">
-        <v>2442.863433870746</v>
+        <v>2442.863433870745</v>
       </c>
       <c r="Q3" t="n">
-        <v>2654.86392139994</v>
+        <v>2654.863921399939</v>
       </c>
       <c r="R3" t="n">
-        <v>2624.465348443722</v>
+        <v>2624.465348443721</v>
       </c>
       <c r="S3" t="n">
-        <v>2472.220298380047</v>
+        <v>2472.220298380046</v>
       </c>
       <c r="T3" t="n">
-        <v>2274.628116639006</v>
+        <v>2274.628116639005</v>
       </c>
       <c r="U3" t="n">
         <v>2046.479488792699</v>
       </c>
       <c r="V3" t="n">
-        <v>1811.327380560957</v>
+        <v>1811.327380560956</v>
       </c>
       <c r="W3" t="n">
-        <v>1557.090023832755</v>
+        <v>1557.090023832754</v>
       </c>
       <c r="X3" t="n">
         <v>1349.238523627222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="C4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="D4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="E4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="F4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="G4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="H4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="I4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K4" t="n">
-        <v>139.8662377452033</v>
+        <v>139.8662377452036</v>
       </c>
       <c r="L4" t="n">
-        <v>306.4270667670669</v>
+        <v>306.4270667670677</v>
       </c>
       <c r="M4" t="n">
-        <v>492.4312305136489</v>
+        <v>492.4312305136501</v>
       </c>
       <c r="N4" t="n">
-        <v>679.4472474079381</v>
+        <v>679.4472474079397</v>
       </c>
       <c r="O4" t="n">
-        <v>836.1705129147963</v>
+        <v>836.1705129147982</v>
       </c>
       <c r="P4" t="n">
-        <v>946.7536591077857</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="Q4" t="n">
-        <v>939.7410668120079</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="R4" t="n">
-        <v>803.6247850351475</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="S4" t="n">
-        <v>593.9991666055196</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="T4" t="n">
-        <v>367.8341812738805</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="U4" t="n">
-        <v>78.6751649965305</v>
+        <v>657.5946428304378</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0972784279988</v>
+        <v>402.910154624551</v>
       </c>
       <c r="W4" t="n">
-        <v>53.0972784279988</v>
+        <v>281.0868293260161</v>
       </c>
       <c r="X4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>794.6673874560752</v>
+        <v>1362.631276174883</v>
       </c>
       <c r="C5" t="n">
-        <v>794.6673874560752</v>
+        <v>993.6687592344711</v>
       </c>
       <c r="D5" t="n">
-        <v>794.6673874560752</v>
+        <v>993.6687592344711</v>
       </c>
       <c r="E5" t="n">
-        <v>794.6673874560752</v>
+        <v>607.8805066362269</v>
       </c>
       <c r="F5" t="n">
-        <v>387.5102837683423</v>
+        <v>196.8946018466193</v>
       </c>
       <c r="G5" t="n">
-        <v>374.1833541813078</v>
+        <v>183.5676722595848</v>
       </c>
       <c r="H5" t="n">
-        <v>53.0972784279988</v>
+        <v>183.5676722595848</v>
       </c>
       <c r="I5" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J5" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K5" t="n">
-        <v>290.2452580146847</v>
+        <v>290.2452580146786</v>
       </c>
       <c r="L5" t="n">
-        <v>386.3364291759569</v>
+        <v>386.3364291759518</v>
       </c>
       <c r="M5" t="n">
-        <v>969.9442074813941</v>
+        <v>969.9442074813901</v>
       </c>
       <c r="N5" t="n">
-        <v>1548.363372237147</v>
+        <v>1548.363372237145</v>
       </c>
       <c r="O5" t="n">
-        <v>2049.360549648908</v>
+        <v>2049.360549648906</v>
       </c>
       <c r="P5" t="n">
-        <v>2439.27566668296</v>
+        <v>2439.275666682959</v>
       </c>
       <c r="Q5" t="n">
-        <v>2654.86392139994</v>
+        <v>2654.863921399939</v>
       </c>
       <c r="R5" t="n">
-        <v>2654.86392139994</v>
+        <v>2637.303521631362</v>
       </c>
       <c r="S5" t="n">
-        <v>2492.27859579892</v>
+        <v>2474.718196030342</v>
       </c>
       <c r="T5" t="n">
-        <v>2492.27859579892</v>
+        <v>2359.253330824767</v>
       </c>
       <c r="U5" t="n">
-        <v>2238.564528394962</v>
+        <v>2105.539263420809</v>
       </c>
       <c r="V5" t="n">
-        <v>1907.501641051391</v>
+        <v>2105.539263420809</v>
       </c>
       <c r="W5" t="n">
-        <v>1554.732985781277</v>
+        <v>1752.770608150694</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.267227520197</v>
+        <v>1752.770608150694</v>
       </c>
       <c r="Y5" t="n">
-        <v>1181.267227520197</v>
+        <v>1362.631276174883</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973.2628878421997</v>
+        <v>973.2628878422</v>
       </c>
       <c r="C6" t="n">
-        <v>798.8098585610727</v>
+        <v>798.809858561073</v>
       </c>
       <c r="D6" t="n">
-        <v>649.8754488998215</v>
+        <v>649.8754488998218</v>
       </c>
       <c r="E6" t="n">
-        <v>490.637993894366</v>
+        <v>490.6379938943663</v>
       </c>
       <c r="F6" t="n">
-        <v>344.1034359212511</v>
+        <v>344.1034359212513</v>
       </c>
       <c r="G6" t="n">
-        <v>206.5124648468964</v>
+        <v>206.5124648468962</v>
       </c>
       <c r="H6" t="n">
-        <v>104.151922514786</v>
+        <v>104.1519225147859</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J6" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K6" t="n">
-        <v>97.03290999295399</v>
+        <v>97.03290999295452</v>
       </c>
       <c r="L6" t="n">
-        <v>293.8530672543719</v>
+        <v>293.8530672543679</v>
       </c>
       <c r="M6" t="n">
-        <v>897.2541000621977</v>
+        <v>897.2541000621945</v>
       </c>
       <c r="N6" t="n">
-        <v>1532.332376120094</v>
+        <v>1532.332376120092</v>
       </c>
       <c r="O6" t="n">
-        <v>2046.889247849866</v>
+        <v>2046.889247849864</v>
       </c>
       <c r="P6" t="n">
-        <v>2442.863433870746</v>
+        <v>2442.863433870745</v>
       </c>
       <c r="Q6" t="n">
-        <v>2654.86392139994</v>
+        <v>2654.863921399939</v>
       </c>
       <c r="R6" t="n">
-        <v>2624.465348443722</v>
+        <v>2624.465348443721</v>
       </c>
       <c r="S6" t="n">
         <v>2472.220298380046</v>
@@ -4683,7 +4683,7 @@
         <v>1811.327380560956</v>
       </c>
       <c r="W6" t="n">
-        <v>1557.090023832754</v>
+        <v>1557.090023832755</v>
       </c>
       <c r="X6" t="n">
         <v>1349.238523627222</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="C7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="D7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="E7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="F7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="G7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="H7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="I7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K7" t="n">
-        <v>139.8662377452033</v>
+        <v>139.8662377452036</v>
       </c>
       <c r="L7" t="n">
-        <v>306.4270667670669</v>
+        <v>306.4270667670677</v>
       </c>
       <c r="M7" t="n">
-        <v>492.4312305136489</v>
+        <v>492.4312305136501</v>
       </c>
       <c r="N7" t="n">
-        <v>679.4472474079381</v>
+        <v>679.4472474079397</v>
       </c>
       <c r="O7" t="n">
-        <v>836.1705129147963</v>
+        <v>836.1705129147982</v>
       </c>
       <c r="P7" t="n">
-        <v>946.7536591077857</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="Q7" t="n">
-        <v>946.7536591077857</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="R7" t="n">
-        <v>946.7536591077857</v>
+        <v>946.7536591077878</v>
       </c>
       <c r="S7" t="n">
-        <v>737.1280406781577</v>
+        <v>737.12804067816</v>
       </c>
       <c r="T7" t="n">
-        <v>737.1280406781577</v>
+        <v>563.0488738488789</v>
       </c>
       <c r="U7" t="n">
-        <v>447.9690244008077</v>
+        <v>273.8898575715289</v>
       </c>
       <c r="V7" t="n">
-        <v>447.9690244008077</v>
+        <v>273.8898575715289</v>
       </c>
       <c r="W7" t="n">
-        <v>447.9690244008077</v>
+        <v>273.8898575715289</v>
       </c>
       <c r="X7" t="n">
-        <v>219.9794735027904</v>
+        <v>273.8898575715289</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.0972784279988</v>
+        <v>53.09727842799879</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.955099590246</v>
+        <v>1550.104445706921</v>
       </c>
       <c r="C8" t="n">
-        <v>939.9925826498347</v>
+        <v>1181.141928766509</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0466467681545</v>
+        <v>1181.141928766509</v>
       </c>
       <c r="E8" t="n">
-        <v>915.0466467681545</v>
+        <v>795.3536761682652</v>
       </c>
       <c r="F8" t="n">
-        <v>908.101146018951</v>
+        <v>788.4081754190618</v>
       </c>
       <c r="G8" t="n">
-        <v>491.0133642553785</v>
+        <v>371.3203936554893</v>
       </c>
       <c r="H8" t="n">
-        <v>172.790249027888</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="I8" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J8" t="n">
-        <v>74.33152842138207</v>
+        <v>74.33152842138209</v>
       </c>
       <c r="K8" t="n">
         <v>156.8946829959744</v>
       </c>
       <c r="L8" t="n">
-        <v>296.2233388372276</v>
+        <v>619.2046286334125</v>
       </c>
       <c r="M8" t="n">
-        <v>927.9411498205394</v>
+        <v>805.9040414588202</v>
       </c>
       <c r="N8" t="n">
-        <v>1433.211709518666</v>
+        <v>1433.211709518667</v>
       </c>
       <c r="O8" t="n">
-        <v>1980.372914285743</v>
+        <v>1980.372914285744</v>
       </c>
       <c r="P8" t="n">
-        <v>2409.687960625038</v>
+        <v>2409.687960625039</v>
       </c>
       <c r="Q8" t="n">
         <v>2654.863921399939</v>
@@ -4829,25 +4829,25 @@
         <v>2654.863921399939</v>
       </c>
       <c r="S8" t="n">
-        <v>2498.648883896767</v>
+        <v>2498.648883896768</v>
       </c>
       <c r="T8" t="n">
-        <v>2283.849022164478</v>
+        <v>2283.849022164479</v>
       </c>
       <c r="U8" t="n">
-        <v>2030.157318909629</v>
+        <v>2283.849022164479</v>
       </c>
       <c r="V8" t="n">
-        <v>1699.094431566058</v>
+        <v>1952.786134820908</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.094431566058</v>
+        <v>1600.017479550794</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.094431566058</v>
+        <v>1550.104445706921</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.955099590246</v>
+        <v>1550.104445706921</v>
       </c>
     </row>
     <row r="9">
@@ -4875,13 +4875,13 @@
         <v>199.9181132928777</v>
       </c>
       <c r="H9" t="n">
-        <v>99.00213543768228</v>
+        <v>99.0021354376823</v>
       </c>
       <c r="I9" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J9" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K9" t="n">
         <v>120.7050980913558</v>
@@ -4890,7 +4890,7 @@
         <v>257.9346961070498</v>
       </c>
       <c r="M9" t="n">
-        <v>774.2462820285161</v>
+        <v>898.4800455741545</v>
       </c>
       <c r="N9" t="n">
         <v>1431.325102575001</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.09727842799877</v>
+        <v>222.0334613559057</v>
       </c>
       <c r="C10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="D10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="E10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="F10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="G10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="H10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="I10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="J10" t="n">
-        <v>53.09727842799877</v>
+        <v>53.09727842799879</v>
       </c>
       <c r="K10" t="n">
         <v>154.1452080236086</v>
@@ -4984,28 +4984,28 @@
         <v>1053.031959887344</v>
       </c>
       <c r="R10" t="n">
-        <v>922.5539986067463</v>
+        <v>1053.031959887344</v>
       </c>
       <c r="S10" t="n">
-        <v>922.5539986067463</v>
+        <v>1053.031959887344</v>
       </c>
       <c r="T10" t="n">
-        <v>852.4592040308098</v>
+        <v>1053.031959887344</v>
       </c>
       <c r="U10" t="n">
-        <v>563.3070276084895</v>
+        <v>763.8797834650234</v>
       </c>
       <c r="V10" t="n">
-        <v>563.3070276084895</v>
+        <v>511.4506313928663</v>
       </c>
       <c r="W10" t="n">
-        <v>273.8898575715289</v>
+        <v>222.0334613559057</v>
       </c>
       <c r="X10" t="n">
-        <v>273.8898575715289</v>
+        <v>222.0334613559057</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.09727842799877</v>
+        <v>222.0334613559057</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5598,10 +5598,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5975,25 +5975,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6075,7 +6075,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,7 +6169,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
         <v>2438.456847547835</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,7 +6309,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,16 +6409,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6464,22 +6464,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345477</v>
@@ -6619,10 +6619,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7087,16 +7087,16 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580116</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7546,16 +7546,16 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.040611488691695</v>
+        <v>2.040611488691155</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>191.3507328402188</v>
       </c>
       <c r="L2" t="n">
-        <v>191.3507328402258</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>20.22330044226112</v>
+        <v>20.22330044226081</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92.3441792661439</v>
+        <v>92.34417926613861</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.040611488691695</v>
+        <v>2.040611488691155</v>
       </c>
       <c r="K5" t="n">
-        <v>191.3507328402258</v>
+        <v>191.3507328402188</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.22330044226112</v>
+        <v>20.22330044226081</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>92.3441792661439</v>
+        <v>92.34417926613861</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>326.2437270668534</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>314.0771179860042</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>340.2164137039005</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>463.0526049432526</v>
+        <v>337.5639548971534</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>329.4919736247266</v>
+        <v>158.708217108139</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22562,10 @@
         <v>413.1936602911642</v>
       </c>
       <c r="H2" t="n">
-        <v>317.8752149957759</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>129.1656898932701</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.044919923362</v>
@@ -22723,10 +22723,10 @@
         <v>153.8158440753975</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9998875518032</v>
+        <v>126.9998875518031</v>
       </c>
       <c r="J4" t="n">
-        <v>26.47277805533234</v>
+        <v>26.47277805533214</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.942466372819666</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.9033354783226</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>226.8155356209816</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>165.9179062910415</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55.74112246243951</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>727969.630449602</v>
+        <v>727969.6304496035</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>58958.22964959644</v>
+        <v>58958.22964959507</v>
       </c>
       <c r="E3" t="n">
-        <v>774209.0467243785</v>
+        <v>774209.0467243784</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.73532001646627e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>173657.3039626915</v>
+        <v>173657.3039626914</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.577490959506671e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>126842.9190604472</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89065.4483880425</v>
+        <v>89065.44838804231</v>
       </c>
       <c r="C4" t="n">
-        <v>195067.5772598635</v>
+        <v>195067.5772598633</v>
       </c>
       <c r="D4" t="n">
         <v>183435.2412486325</v>
@@ -26430,7 +26430,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695095</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
@@ -26439,10 +26439,10 @@
         <v>14278.33979478852</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478852</v>
@@ -26451,10 +26451,10 @@
         <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85418.53012156692</v>
+        <v>85418.53012156696</v>
       </c>
       <c r="C5" t="n">
-        <v>85418.53012156692</v>
+        <v>85418.53012156696</v>
       </c>
       <c r="D5" t="n">
         <v>86919.31059264889</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-902453.6089592115</v>
+        <v>-902917.9057512373</v>
       </c>
       <c r="C6" t="n">
-        <v>-280486.1073814304</v>
+        <v>-280486.1073814302</v>
       </c>
       <c r="D6" t="n">
-        <v>-329312.7814908779</v>
+        <v>-329312.7814908765</v>
       </c>
       <c r="E6" t="n">
-        <v>-881619.0570799806</v>
+        <v>-881653.7950054161</v>
       </c>
       <c r="F6" t="n">
-        <v>-107410.0103556022</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="G6" t="n">
-        <v>-107410.0103556023</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="H6" t="n">
-        <v>-107410.0103556022</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="I6" t="n">
         <v>-136870.1736423357</v>
       </c>
       <c r="J6" t="n">
-        <v>-291099.7596113954</v>
+        <v>-291099.7596113953</v>
       </c>
       <c r="K6" t="n">
         <v>-117442.4556487039</v>
       </c>
       <c r="L6" t="n">
-        <v>-117442.455648704</v>
+        <v>-117442.4556487039</v>
       </c>
       <c r="M6" t="n">
         <v>-244285.3747091511</v>
@@ -26558,10 +26558,10 @@
         <v>-136870.1736423357</v>
       </c>
       <c r="O6" t="n">
-        <v>-117442.4556487039</v>
+        <v>-117442.4556487038</v>
       </c>
       <c r="P6" t="n">
-        <v>-117442.4556487039</v>
+        <v>-117442.455648704</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524.6329594627449</v>
+        <v>524.6329594627465</v>
       </c>
       <c r="C3" t="n">
-        <v>524.6329594627449</v>
+        <v>524.6329594627465</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.715980349985</v>
+        <v>663.7159803499849</v>
       </c>
       <c r="C4" t="n">
-        <v>663.715980349985</v>
+        <v>663.7159803499849</v>
       </c>
       <c r="D4" t="n">
-        <v>663.7159803499846</v>
+        <v>663.7159803499849</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.971863699383338e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524.6329594627449</v>
+        <v>524.6329594627465</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>68.84314087532016</v>
+        <v>68.84314087531857</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.715980349985</v>
+        <v>663.7159803499849</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>508.9923077496637</v>
+        <v>508.9923077496635</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.715980349985</v>
+        <v>663.7159803499848</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>508.9923077496637</v>
+        <v>508.9923077496635</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>663.715980349985</v>
+        <v>663.7159803499849</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>508.9923077496637</v>
+        <v>508.9923077496635</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.8752149957758</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>37.68844839457569</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>79.30651501789288</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.7551189590917</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.5293622453315</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.790513090855939</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>317.8752149957758</v>
       </c>
       <c r="I5" t="n">
-        <v>129.1656898932703</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>17.38479577089177</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.863364016199</v>
+        <v>99.55314746267948</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>153.8158440753975</v>
       </c>
       <c r="I7" t="n">
-        <v>126.9998875518032</v>
+        <v>126.9998875518031</v>
       </c>
       <c r="J7" t="n">
-        <v>26.47277805533234</v>
+        <v>26.47277805533214</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.942466372819908</v>
+        <v>6.942466372819666</v>
       </c>
       <c r="R7" t="n">
-        <v>134.7551189590918</v>
+        <v>134.7551189590917</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.9033354783226</v>
+        <v>51.56496031733431</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.37128022805115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>329.9865650978195</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>320.3171971730349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>153.9790580905816</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>2.232782772392511</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.109077223970832</v>
+        <v>2.109077223970838</v>
       </c>
       <c r="H2" t="n">
-        <v>21.59958711999129</v>
+        <v>21.59958711999136</v>
       </c>
       <c r="I2" t="n">
-        <v>81.31019967713559</v>
+        <v>81.31019967713583</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0052930379946</v>
+        <v>179.0052930379951</v>
       </c>
       <c r="K2" t="n">
-        <v>268.28253192868</v>
+        <v>268.2825319286808</v>
       </c>
       <c r="L2" t="n">
-        <v>332.8282040217774</v>
+        <v>332.8282040217784</v>
       </c>
       <c r="M2" t="n">
-        <v>370.3355061035687</v>
+        <v>370.3355061035698</v>
       </c>
       <c r="N2" t="n">
-        <v>376.3279217661758</v>
+        <v>376.327921766177</v>
       </c>
       <c r="O2" t="n">
-        <v>355.3557851203158</v>
+        <v>355.3557851203169</v>
       </c>
       <c r="P2" t="n">
-        <v>303.2879411535359</v>
+        <v>303.2879411535368</v>
       </c>
       <c r="Q2" t="n">
-        <v>227.7566130700804</v>
+        <v>227.756613070081</v>
       </c>
       <c r="R2" t="n">
-        <v>132.4843221702579</v>
+        <v>132.4843221702583</v>
       </c>
       <c r="S2" t="n">
-        <v>48.06059724123539</v>
+        <v>48.06059724123553</v>
       </c>
       <c r="T2" t="n">
-        <v>9.232485547932322</v>
+        <v>9.232485547932351</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1687261779176665</v>
+        <v>0.1687261779176671</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.128455799599112</v>
+        <v>1.128455799599115</v>
       </c>
       <c r="H3" t="n">
-        <v>10.89850732770721</v>
+        <v>10.89850732770724</v>
       </c>
       <c r="I3" t="n">
-        <v>38.85253520549573</v>
+        <v>38.85253520549585</v>
       </c>
       <c r="J3" t="n">
-        <v>106.6143262244056</v>
+        <v>106.6143262244059</v>
       </c>
       <c r="K3" t="n">
-        <v>182.2208647975461</v>
+        <v>182.2208647975466</v>
       </c>
       <c r="L3" t="n">
-        <v>245.0184401717282</v>
+        <v>245.0184401717289</v>
       </c>
       <c r="M3" t="n">
-        <v>285.9249629071959</v>
+        <v>285.9249629071968</v>
       </c>
       <c r="N3" t="n">
-        <v>293.492545879069</v>
+        <v>293.4925458790699</v>
       </c>
       <c r="O3" t="n">
-        <v>268.4883410563729</v>
+        <v>268.4883410563737</v>
       </c>
       <c r="P3" t="n">
-        <v>215.4855640480093</v>
+        <v>215.48556404801</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.0463929453182</v>
+        <v>144.0463929453186</v>
       </c>
       <c r="R3" t="n">
-        <v>70.06324692598697</v>
+        <v>70.06324692598719</v>
       </c>
       <c r="S3" t="n">
-        <v>20.96057154079928</v>
+        <v>20.96057154079934</v>
       </c>
       <c r="T3" t="n">
-        <v>4.548468771191155</v>
+        <v>4.548468771191168</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07424051313152054</v>
+        <v>0.07424051313152076</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9460594350967529</v>
+        <v>0.9460594350967558</v>
       </c>
       <c r="H4" t="n">
-        <v>8.411328432042046</v>
+        <v>8.411328432042072</v>
       </c>
       <c r="I4" t="n">
-        <v>28.45058737545509</v>
+        <v>28.45058737545518</v>
       </c>
       <c r="J4" t="n">
-        <v>66.88640206134043</v>
+        <v>66.88640206134063</v>
       </c>
       <c r="K4" t="n">
-        <v>109.9149052776045</v>
+        <v>109.9149052776049</v>
       </c>
       <c r="L4" t="n">
-        <v>140.65323637793</v>
+        <v>140.6532363779304</v>
       </c>
       <c r="M4" t="n">
-        <v>148.2991167215756</v>
+        <v>148.299116721576</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7728951907605</v>
+        <v>144.7728951907609</v>
       </c>
       <c r="O4" t="n">
-        <v>133.7212008807666</v>
+        <v>133.721200880767</v>
       </c>
       <c r="P4" t="n">
-        <v>114.4215884047927</v>
+        <v>114.421588404793</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.21957687887448</v>
+        <v>79.21957687887472</v>
       </c>
       <c r="R4" t="n">
-        <v>42.53827241807763</v>
+        <v>42.53827241807776</v>
       </c>
       <c r="S4" t="n">
-        <v>16.48723579164068</v>
+        <v>16.48723579164073</v>
       </c>
       <c r="T4" t="n">
-        <v>4.042253949958853</v>
+        <v>4.042253949958865</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05160324191436841</v>
+        <v>0.05160324191436856</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.109077223970832</v>
+        <v>2.109077223970838</v>
       </c>
       <c r="H5" t="n">
-        <v>21.59958711999129</v>
+        <v>21.59958711999136</v>
       </c>
       <c r="I5" t="n">
-        <v>81.31019967713559</v>
+        <v>81.31019967713583</v>
       </c>
       <c r="J5" t="n">
-        <v>179.0052930379946</v>
+        <v>179.0052930379951</v>
       </c>
       <c r="K5" t="n">
-        <v>268.28253192868</v>
+        <v>268.2825319286808</v>
       </c>
       <c r="L5" t="n">
-        <v>332.8282040217774</v>
+        <v>332.8282040217784</v>
       </c>
       <c r="M5" t="n">
-        <v>370.3355061035687</v>
+        <v>370.3355061035698</v>
       </c>
       <c r="N5" t="n">
-        <v>376.3279217661758</v>
+        <v>376.327921766177</v>
       </c>
       <c r="O5" t="n">
-        <v>355.3557851203158</v>
+        <v>355.3557851203169</v>
       </c>
       <c r="P5" t="n">
-        <v>303.2879411535359</v>
+        <v>303.2879411535368</v>
       </c>
       <c r="Q5" t="n">
-        <v>227.7566130700804</v>
+        <v>227.756613070081</v>
       </c>
       <c r="R5" t="n">
-        <v>132.4843221702579</v>
+        <v>132.4843221702583</v>
       </c>
       <c r="S5" t="n">
-        <v>48.06059724123539</v>
+        <v>48.06059724123553</v>
       </c>
       <c r="T5" t="n">
-        <v>9.232485547932322</v>
+        <v>9.232485547932351</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1687261779176665</v>
+        <v>0.1687261779176671</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.128455799599112</v>
+        <v>1.128455799599115</v>
       </c>
       <c r="H6" t="n">
-        <v>10.89850732770721</v>
+        <v>10.89850732770724</v>
       </c>
       <c r="I6" t="n">
-        <v>38.85253520549573</v>
+        <v>38.85253520549585</v>
       </c>
       <c r="J6" t="n">
-        <v>106.6143262244056</v>
+        <v>106.6143262244059</v>
       </c>
       <c r="K6" t="n">
-        <v>182.2208647975461</v>
+        <v>182.2208647975466</v>
       </c>
       <c r="L6" t="n">
-        <v>245.0184401717282</v>
+        <v>245.0184401717289</v>
       </c>
       <c r="M6" t="n">
-        <v>285.9249629071959</v>
+        <v>285.9249629071968</v>
       </c>
       <c r="N6" t="n">
-        <v>293.492545879069</v>
+        <v>293.4925458790699</v>
       </c>
       <c r="O6" t="n">
-        <v>268.4883410563729</v>
+        <v>268.4883410563737</v>
       </c>
       <c r="P6" t="n">
-        <v>215.4855640480093</v>
+        <v>215.48556404801</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.0463929453182</v>
+        <v>144.0463929453186</v>
       </c>
       <c r="R6" t="n">
-        <v>70.06324692598697</v>
+        <v>70.06324692598719</v>
       </c>
       <c r="S6" t="n">
-        <v>20.96057154079928</v>
+        <v>20.96057154079934</v>
       </c>
       <c r="T6" t="n">
-        <v>4.548468771191155</v>
+        <v>4.548468771191168</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07424051313152054</v>
+        <v>0.07424051313152076</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9460594350967529</v>
+        <v>0.9460594350967558</v>
       </c>
       <c r="H7" t="n">
-        <v>8.411328432042046</v>
+        <v>8.411328432042072</v>
       </c>
       <c r="I7" t="n">
-        <v>28.45058737545509</v>
+        <v>28.45058737545518</v>
       </c>
       <c r="J7" t="n">
-        <v>66.88640206134043</v>
+        <v>66.88640206134063</v>
       </c>
       <c r="K7" t="n">
-        <v>109.9149052776045</v>
+        <v>109.9149052776049</v>
       </c>
       <c r="L7" t="n">
-        <v>140.65323637793</v>
+        <v>140.6532363779304</v>
       </c>
       <c r="M7" t="n">
-        <v>148.2991167215756</v>
+        <v>148.299116721576</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7728951907605</v>
+        <v>144.7728951907609</v>
       </c>
       <c r="O7" t="n">
-        <v>133.7212008807666</v>
+        <v>133.721200880767</v>
       </c>
       <c r="P7" t="n">
-        <v>114.4215884047927</v>
+        <v>114.421588404793</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.21957687887448</v>
+        <v>79.21957687887472</v>
       </c>
       <c r="R7" t="n">
-        <v>42.53827241807763</v>
+        <v>42.53827241807776</v>
       </c>
       <c r="S7" t="n">
-        <v>16.48723579164068</v>
+        <v>16.48723579164073</v>
       </c>
       <c r="T7" t="n">
-        <v>4.042253949958853</v>
+        <v>4.042253949958865</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05160324191436841</v>
+        <v>0.05160324191436856</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31847,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32795,10 +32795,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.19268088369944</v>
+        <v>239.543413723919</v>
       </c>
       <c r="L2" t="n">
-        <v>288.4125218920159</v>
+        <v>97.06178905179115</v>
       </c>
       <c r="M2" t="n">
-        <v>589.5028063691284</v>
+        <v>589.5028063691295</v>
       </c>
       <c r="N2" t="n">
-        <v>584.261782581569</v>
+        <v>584.2617825815703</v>
       </c>
       <c r="O2" t="n">
-        <v>506.0577549613745</v>
+        <v>506.0577549613755</v>
       </c>
       <c r="P2" t="n">
-        <v>393.853653569749</v>
+        <v>393.8536535697499</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.7659138555356</v>
+        <v>217.7659138555362</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.37942582318706</v>
+        <v>44.3794258231876</v>
       </c>
       <c r="L3" t="n">
-        <v>198.8082396579979</v>
+        <v>198.8082396579934</v>
       </c>
       <c r="M3" t="n">
-        <v>609.4959927351775</v>
+        <v>609.4959927351783</v>
       </c>
       <c r="N3" t="n">
-        <v>641.4932081392892</v>
+        <v>641.4932081392901</v>
       </c>
       <c r="O3" t="n">
-        <v>519.7544158886579</v>
+        <v>519.7544158886587</v>
       </c>
       <c r="P3" t="n">
-        <v>399.9739252736163</v>
+        <v>399.9739252736169</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.1419065951458</v>
+        <v>214.1419065951462</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>87.64541345172169</v>
+        <v>87.64541345172204</v>
       </c>
       <c r="L4" t="n">
-        <v>168.2432616382461</v>
+        <v>168.2432616382466</v>
       </c>
       <c r="M4" t="n">
-        <v>187.8829936834161</v>
+        <v>187.8829936834166</v>
       </c>
       <c r="N4" t="n">
-        <v>188.9050675699891</v>
+        <v>188.9050675699895</v>
       </c>
       <c r="O4" t="n">
-        <v>158.3063287948062</v>
+        <v>158.3063287948066</v>
       </c>
       <c r="P4" t="n">
-        <v>111.7001476696862</v>
+        <v>111.7001476696865</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>239.5434137239252</v>
+        <v>239.543413723919</v>
       </c>
       <c r="L5" t="n">
-        <v>97.06178905179013</v>
+        <v>97.06178905179115</v>
       </c>
       <c r="M5" t="n">
-        <v>589.5028063691284</v>
+        <v>589.5028063691295</v>
       </c>
       <c r="N5" t="n">
-        <v>584.261782581569</v>
+        <v>584.2617825815703</v>
       </c>
       <c r="O5" t="n">
-        <v>506.0577549613745</v>
+        <v>506.0577549613755</v>
       </c>
       <c r="P5" t="n">
-        <v>393.853653569749</v>
+        <v>393.8536535697499</v>
       </c>
       <c r="Q5" t="n">
-        <v>217.7659138555356</v>
+        <v>217.7659138555362</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.37942582318706</v>
+        <v>44.3794258231876</v>
       </c>
       <c r="L6" t="n">
-        <v>198.8082396579979</v>
+        <v>198.8082396579934</v>
       </c>
       <c r="M6" t="n">
-        <v>609.4959927351775</v>
+        <v>609.4959927351783</v>
       </c>
       <c r="N6" t="n">
-        <v>641.4932081392892</v>
+        <v>641.4932081392901</v>
       </c>
       <c r="O6" t="n">
-        <v>519.7544158886579</v>
+        <v>519.7544158886587</v>
       </c>
       <c r="P6" t="n">
-        <v>399.9739252736163</v>
+        <v>399.9739252736169</v>
       </c>
       <c r="Q6" t="n">
-        <v>214.1419065951458</v>
+        <v>214.1419065951462</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>87.64541345172169</v>
+        <v>87.64541345172204</v>
       </c>
       <c r="L7" t="n">
-        <v>168.2432616382461</v>
+        <v>168.2432616382466</v>
       </c>
       <c r="M7" t="n">
-        <v>187.8829936834161</v>
+        <v>187.8829936834166</v>
       </c>
       <c r="N7" t="n">
-        <v>188.9050675699891</v>
+        <v>188.9050675699895</v>
       </c>
       <c r="O7" t="n">
-        <v>158.3063287948062</v>
+        <v>158.3063287948066</v>
       </c>
       <c r="P7" t="n">
-        <v>111.7001476696862</v>
+        <v>111.7001476696865</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>466.9797430681193</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>510.3743027253803</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35258,10 +35258,10 @@
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>521.5268544661276</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>663.7159803499846</v>
+        <v>538.2273303038854</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36516,10 +36516,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930848</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
